--- a/src/main/java/com/jcondori/odoo/sunat.document.type.template.xlsx
+++ b/src/main/java/com/jcondori/odoo/sunat.document.type.template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Optimiza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\JavaProjects\JavaExcel\src\main\java\com\jcondori\odoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780DF054-E483-4AD5-9147-0BA808748292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="6240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -500,13 +501,13 @@
     <t>eval="[(6,0,[ref('account_document_type_03'),ref('account_document_type_04')])]"</t>
   </si>
   <si>
-    <t>ref="pe_chart_template"</t>
+    <t>ref="l10n_pe.pe_chart_template"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,7 +556,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -832,24 +833,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="70.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -875,7 +878,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -892,7 +895,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -918,7 +921,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -935,7 +938,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -961,7 +964,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -978,7 +981,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -995,7 +998,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>123</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -1268,7 +1271,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>139</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>140</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>146</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>148</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>151</v>
       </c>
